--- a/equalitymap pipeline.xlsx
+++ b/equalitymap pipeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gfloy\OneDrive\Documents\GitHub\Equality-Compass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204B3402-86DD-472F-B45F-3EB3DD7EA3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7414811-6A77-482A-9246-550FD334E103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{B9A08836-13BB-442A-820F-7B3CD96E6041}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="4" xr2:uid="{B9A08836-13BB-442A-820F-7B3CD96E6041}"/>
   </bookViews>
   <sheets>
     <sheet name="State Data 2-13-202" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1296,14 +1296,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1798,7 +1798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB889E9B-CC6A-4DDC-8BA6-240D22A17903}">
   <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5748,16 +5748,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="22" t="str">
         <f>C2</f>
         <v>Gender Identity Tally</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21" t="str">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22" t="str">
         <f>D2</f>
         <v>OVERALL Tally</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
@@ -7796,8 +7796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AB70F5-926B-40D2-B396-6CE32564F693}">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7827,15 +7827,15 @@
       <c r="H1" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" t="s">
         <v>315</v>
       </c>
@@ -8347,13 +8347,13 @@
 	},
 }</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="str">
@@ -9885,7 +9885,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9913,15 +9913,15 @@
       <c r="H1" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
       <c r="P1" t="s">
         <v>315</v>
       </c>
@@ -10433,13 +10433,13 @@
 	},
 }</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
     </row>
     <row r="3" spans="1:16" ht="14.5" customHeight="1">
       <c r="A3" t="str">
@@ -10458,10 +10458,10 @@
         <f>_xlfn.XLOOKUP(B3,'Score System'!$D$15:$D$19,'Score System'!$A$15:$A$19,,-1)</f>
         <v>low</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:16" ht="14.5" customHeight="1">
       <c r="A4" t="str">
@@ -10480,10 +10480,10 @@
         <f>_xlfn.XLOOKUP(B4,'Score System'!$D$15:$D$19,'Score System'!$A$15:$A$19,,-1)</f>
         <v>low</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="str">
